--- a/input.xlsx
+++ b/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">Required Fields</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anish Kanthamneni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venmo Deadline Date</t>
   </si>
   <si>
     <t xml:space="preserve">Optional Fields</t>
@@ -152,13 +155,14 @@
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="2" borderId="1" numFmtId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
       <protection hidden="0" locked="1"/>
@@ -676,7 +680,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -757,28 +761,35 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="14.25"/>
+    <row r="10" ht="14.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="4">
+        <v>45761</v>
+      </c>
+    </row>
     <row r="12" ht="14.25">
       <c r="A12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1"/>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="6">
         <f>B2/2</f>
         <v>51.719999999999999</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="5"/>
       <c r="C14">
         <f>B3/2</f>
         <v>27.5</v>
@@ -786,18 +797,18 @@
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="5"/>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" ht="14.25"/>
     <row r="19" ht="14.25"/>
     <row r="20" ht="14.25">
-      <c r="A20" s="6" t="s">
-        <v>15</v>
+      <c r="A20" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B20">
         <f>IF(B13="",C13,B13)-B6+B8</f>

--- a/input.xlsx
+++ b/input.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t xml:space="preserve">Required Fields</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+  <si>
+    <t xml:space="preserve">Required Fields (Total)</t>
   </si>
   <si>
     <t xml:space="preserve">Gas and Electric Total</t>
@@ -27,25 +27,46 @@
     <t xml:space="preserve">Internet Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Apartment reimbursables (LTG)</t>
+    <t xml:space="preserve">Rent Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># of Residents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Required Fields (Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTG 1 Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anish Kanthamneni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LTG 2 Name</t>
+  </si>
+  <si>
+    <t>Alhusein</t>
   </si>
   <si>
     <t xml:space="preserve">Apartment reimbursables (Cole)</t>
   </si>
   <si>
-    <t xml:space="preserve">Rent Prepaid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent Total</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rent LTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LTG Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anish Kanthamneni</t>
+    <t xml:space="preserve">Apartment reimbursables (LTG 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apartment reimbursables (LTG 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent (LTG 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent (LTG 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent Prepaid (LTG 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent Prepaid (LTG 2)</t>
   </si>
   <si>
     <t xml:space="preserve">Venmo Deadline Date</t>
@@ -54,10 +75,16 @@
     <t xml:space="preserve">Optional Fields</t>
   </si>
   <si>
-    <t xml:space="preserve">Gas and Electric LTG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Internet LTG</t>
+    <t xml:space="preserve">Gas and Electric LTG 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gas and Electric LTG 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet LTG 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet LTG 2</t>
   </si>
   <si>
     <t xml:space="preserve">Prepaid Rent Date</t>
@@ -66,13 +93,19 @@
     <t>__/__/__</t>
   </si>
   <si>
-    <t>Total</t>
+    <t xml:space="preserve">Total (LTG 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total (LTG 2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11.000000"/>
@@ -100,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -120,13 +153,16 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.099978637043366805"/>
         <bgColor theme="2" tint="-0.099978637043366805"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -149,30 +185,46 @@
       </bottom>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="0" fillId="4" borderId="0" numFmtId="44" applyNumberFormat="1" applyFont="0" applyFill="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="5" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="2" borderId="1" numFmtId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="3" borderId="0" numFmtId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="3" applyNumberFormat="1">
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="164" xfId="3" applyNumberFormat="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -680,7 +732,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -714,43 +766,34 @@
       </c>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>0</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25">
-      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25"/>
+    <row r="7" ht="14.25">
+      <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25">
-      <c r="A7" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="2">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25">
-      <c r="A8" t="s">
+      <c r="B8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1350</v>
       </c>
     </row>
     <row r="9" ht="14.25">
@@ -762,63 +805,147 @@
       </c>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" t="s">
+      <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4">
-        <v>45761</v>
+      <c r="B10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0</v>
       </c>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" ht="14.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6">
-        <f>B2/2</f>
-        <v>51.719999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>968</v>
       </c>
     </row>
     <row r="14" ht="14.25">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14">
-        <f>B3/2</f>
-        <v>27.5</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" ht="14.25">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" ht="14.25"/>
-    <row r="19" ht="14.25"/>
+      <c r="B15" s="2">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45761</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25"/>
+    <row r="19" ht="14.25">
+      <c r="A19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1"/>
+    </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20">
-        <f>IF(B13="",C13,B13)-B6+B8</f>
-        <v>51.720000000000027</v>
-      </c>
-    </row>
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8">
+        <f>$B$2/B5</f>
+        <v>34.479999999999997</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="8">
+        <f>$B$2/B5</f>
+        <v>34.479999999999997</v>
+      </c>
+    </row>
+    <row r="22" ht="14.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="9">
+        <f>B3/B5</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="23" ht="14.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="8">
+        <f>$B$3/B5</f>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="24" ht="14.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" ht="14.25"/>
+    <row r="26" ht="14.25"/>
+    <row r="27" ht="14.25">
+      <c r="A27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="9">
+        <f t="shared" ref="B27:B28" si="0">IF(B20="",C20,B20)+IF(B22="",C22,B22)-B15+B13</f>
+        <v>52.813333333333276</v>
+      </c>
+    </row>
+    <row r="28" ht="14.25">
+      <c r="A28" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28" s="9">
+        <f t="shared" si="0"/>
+        <v>52.813333333333333</v>
+      </c>
+    </row>
+    <row r="31" ht="14.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
